--- a/Hardware/HABEXpico8_Mass_and_Power_Budget.xlsx
+++ b/Hardware/HABEXpico8_Mass_and_Power_Budget.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="20" windowWidth="38400" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Power Budget" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>GPS</t>
   </si>
@@ -300,18 +300,61 @@
   </si>
   <si>
     <t>TV1020-3R0605-R</t>
+  </si>
+  <si>
+    <t>Low Power Mode</t>
+  </si>
+  <si>
+    <t>Maximum Power from Solar Panels</t>
+  </si>
+  <si>
+    <t>Solar Panels</t>
+  </si>
+  <si>
+    <t>Max Solar Power (W)</t>
+  </si>
+  <si>
+    <t>CE Low Power Mode (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Analysis - STORAGE </t>
+  </si>
+  <si>
+    <t>Power Analysis - SOLAR</t>
+  </si>
+  <si>
+    <t>Solar Power Margin (%)</t>
+  </si>
+  <si>
+    <t>Solar Power Margin (W)</t>
+  </si>
+  <si>
+    <t>Operating Time Analysis</t>
+  </si>
+  <si>
+    <t>VIN only, Solar</t>
+  </si>
+  <si>
+    <t>CE - Low Power, GPS+MCU only (sec)</t>
+  </si>
+  <si>
+    <t>GPS+MCU only, RADIO off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,7 +429,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -466,8 +509,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,12 +527,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="48" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="48" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -527,6 +576,7 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -566,6 +616,7 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -895,16 +946,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
@@ -925,11 +976,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:22" ht="20">
       <c r="B2" s="1"/>
@@ -1027,7 +1078,7 @@
       </c>
       <c r="G5" s="11">
         <f>GPS!F3</f>
-        <v>-1.5E-5</v>
+        <v>-2.0000000000000002E-5</v>
       </c>
       <c r="H5" s="11">
         <f>GPS!G3</f>
@@ -1348,7 +1399,7 @@
       </c>
       <c r="C18" s="11">
         <f>SUM(G5:G7)</f>
-        <v>-1.5590000000000002E-5</v>
+        <v>-2.0590000000000004E-5</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1409,6 +1460,9 @@
         <f>N8</f>
         <v>1.5</v>
       </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
@@ -1427,6 +1481,9 @@
         <f>C26*C27</f>
         <v>0.03</v>
       </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
@@ -1465,211 +1522,339 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f>C23</f>
         <v>3.3</v>
       </c>
-      <c r="E34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C36" s="11">
         <f>SUM(I5:I7)</f>
         <v>-0.15800000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11">
-        <f>C34*C35</f>
+      <c r="C37" s="11">
+        <f>C35*C36</f>
         <v>-0.52140000000000009</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
-      <c r="C37" s="11"/>
-    </row>
     <row r="38" spans="2:5">
-      <c r="B38" t="s">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <f>C23</f>
         <v>3.3</v>
       </c>
-      <c r="E38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C41" s="11">
         <f>SUM(H5:H7)</f>
         <v>-4.6432000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="11">
-        <f>C38*C39</f>
-        <v>-0.15322559999999999</v>
-      </c>
-    </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C42" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
+        <f>C40*C41</f>
+        <v>-0.15322559999999999</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="11">
-        <f>C38*C42</f>
-        <v>0.66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>55</v>
-      </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="2:5">
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <f>C23</f>
+        <v>3.3</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C46" s="11">
-        <f>C38*C45</f>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="E46" t="s">
-        <v>56</v>
-      </c>
+        <f>SUM(G5:G7)</f>
+        <v>-2.0590000000000004E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="11">
+        <f>C45*C46</f>
+        <v>-6.7947000000000005E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="11">
-        <f>C42+C35</f>
-        <v>4.1999999999999982E-2</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="11">
-        <f>C45+C39</f>
-        <v>2.3568000000000006E-2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>84</v>
+      <c r="B49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="10">
-        <f>((C42-ABS(C35))/C42)*100</f>
-        <v>20.999999999999989</v>
+        <v>79</v>
+      </c>
+      <c r="C52" s="11">
+        <f>C40*C51</f>
+        <v>0.66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10">
-        <f>((C45-ABS(C39))/C45)*100</f>
-        <v>33.668571428571433</v>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="11">
+        <f>C40*C54</f>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="11">
+        <f>C51+C36</f>
+        <v>4.1999999999999982E-2</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="11">
+        <f>C54+C41</f>
+        <v>2.3568000000000006E-2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="10">
+        <f>((C51-ABS(C36))/C51)*100</f>
+        <v>20.999999999999989</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="10">
+        <f>((C54-ABS(C41))/C54)*100</f>
+        <v>33.668571428571433</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="C62" s="10"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="11">
+        <f>C28</f>
+        <v>0.03</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="11">
+        <f>C47</f>
+        <v>-6.7947000000000005E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="11">
+        <f>C65+C66</f>
+        <v>2.9932053E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="14">
+        <f>((C65-ABS(C66))/C65)*100</f>
+        <v>99.773510000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C74" s="10">
         <f>C32/ABS(C23*H5)</f>
         <v>279.72027972027979</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
-      <c r="B57" t="s">
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C75" s="10">
         <f>C32/ABS(C23*H6)</f>
         <v>2990.4306220095696</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
-      <c r="B58" t="s">
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C76" s="10">
         <f>C32/ABS(C23*H7)</f>
         <v>404.04040404040416</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E76" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
-      <c r="B59" t="s">
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="10">
-        <f>C32/ABS(C23*C39)</f>
+      <c r="C77" s="10">
+        <f>C32/ABS(C23*C41)</f>
         <v>156.63178998809602</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E77" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="15" t="str">
+        <f>IF(C69&gt;0, "INF", "POWER OVERRUN")</f>
+        <v>INF</v>
+      </c>
+      <c r="E79" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1876,7 @@
   <dimension ref="A2:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1756,15 +1941,15 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="13">
-        <f>-0.000015</f>
-        <v>-1.5E-5</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="F3" s="12">
+        <f>-0.00002</f>
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="G3" s="12">
         <f>-0.026</f>
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>-0.067</f>
         <v>-6.7000000000000004E-2</v>
       </c>
@@ -1795,15 +1980,15 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="13">
-        <f>-0.000015</f>
-        <v>-1.5E-5</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="12">
+        <f>-0.00002</f>
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="G4" s="12">
         <f>-0.026</f>
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f>-0.067</f>
         <v>-6.7000000000000004E-2</v>
       </c>
@@ -1908,15 +2093,15 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>-0.00000054</f>
         <v>-5.4000000000000002E-7</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>-(0.000076)*32</f>
         <v>-2.4320000000000001E-3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>-0.006</f>
         <v>-6.0000000000000001E-3</v>
       </c>
@@ -1959,7 +2144,7 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2024,15 +2209,15 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>-0.00000005</f>
         <v>-4.9999999999999998E-8</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>-0.018</f>
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>-0.085</f>
         <v>-8.5000000000000006E-2</v>
       </c>
@@ -2143,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>0.02</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>0.03</f>
         <v>0.03</v>
       </c>
@@ -2288,13 +2473,13 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>3.7</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>115</v>
       </c>
       <c r="I3" s="2">
@@ -2352,13 +2537,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>3.7</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>115</v>
       </c>
       <c r="I4" s="2">
